--- a/NatmiData/natmiOut_TPM/OldD0/LR-pairs_lrc2p/Proc-Thbd.xlsx
+++ b/NatmiData/natmiOut_TPM/OldD0/LR-pairs_lrc2p/Proc-Thbd.xlsx
@@ -552,28 +552,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>20.19138166666667</v>
+        <v>35.991783</v>
       </c>
       <c r="N2">
-        <v>60.574145</v>
+        <v>107.975349</v>
       </c>
       <c r="O2">
-        <v>0.2647638724437206</v>
+        <v>0.3909505149237033</v>
       </c>
       <c r="P2">
-        <v>0.2647638724437206</v>
+        <v>0.3909505149237033</v>
       </c>
       <c r="Q2">
-        <v>3.950948607625</v>
+        <v>7.042692138525</v>
       </c>
       <c r="R2">
-        <v>35.558537468625</v>
+        <v>63.384229246725</v>
       </c>
       <c r="S2">
-        <v>0.2647638724437206</v>
+        <v>0.3909505149237033</v>
       </c>
       <c r="T2">
-        <v>0.2647638724437206</v>
+        <v>0.3909505149237033</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -620,10 +620,10 @@
         <v>148.464943</v>
       </c>
       <c r="O3">
-        <v>0.6489262577427425</v>
+        <v>0.537552751174421</v>
       </c>
       <c r="P3">
-        <v>0.6489262577427425</v>
+        <v>0.537552751174421</v>
       </c>
       <c r="Q3">
         <v>9.683625907175001</v>
@@ -632,10 +632,10 @@
         <v>87.15263316457501</v>
       </c>
       <c r="S3">
-        <v>0.6489262577427425</v>
+        <v>0.537552751174421</v>
       </c>
       <c r="T3">
-        <v>0.6489262577427425</v>
+        <v>0.537552751174421</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -676,16 +676,16 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>6.582150000000001</v>
+        <v>6.58215</v>
       </c>
       <c r="N4">
         <v>19.74645</v>
       </c>
       <c r="O4">
-        <v>0.08630986981353692</v>
+        <v>0.07149673390187571</v>
       </c>
       <c r="P4">
-        <v>0.08630986981353692</v>
+        <v>0.07149673390187571</v>
       </c>
       <c r="Q4">
         <v>1.28796220125</v>
@@ -694,10 +694,10 @@
         <v>11.59165981125</v>
       </c>
       <c r="S4">
-        <v>0.08630986981353692</v>
+        <v>0.07149673390187571</v>
       </c>
       <c r="T4">
-        <v>0.08630986981353692</v>
+        <v>0.07149673390187571</v>
       </c>
     </row>
   </sheetData>
